--- a/tmp/YOU CAN'T RUN FOREVER_SCRIPT_VO/YOU CAN'T RUN FOREVER_SCRIPT_VO-recap-detailed.xlsx
+++ b/tmp/YOU CAN'T RUN FOREVER_SCRIPT_VO/YOU CAN'T RUN FOREVER_SCRIPT_VO-recap-detailed.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -998,22 +998,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>32 - MAIN TITLE</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>21</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
